--- a/data/hlm/fake_erosion_data.xlsx
+++ b/data/hlm/fake_erosion_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\PyProjects\MySimpleLearning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\PyProjects\simpleLearning\data\hlm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E095E4D-2D45-45F3-9DB6-08F805386A15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3EC3DCD-1958-4A30-9D47-1265C95D89C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11604" yWindow="1404" windowWidth="11388" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="13068" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -365,71 +365,83 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="13.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>3.7189999999999999</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>3.4670000000000001</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3.2149999999999999</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
+      <c r="D4" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>3.7189999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>3.4670000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="C4">
-        <v>3.2149999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
       <c r="B5">
+        <v>2.9870000000000001</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="C5">
-        <v>2.9870000000000001</v>
+      <c r="D5" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
